--- a/data/analyzed_results.xlsx
+++ b/data/analyzed_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>組織生検の結果、子宮内膜癌、Stage ICと診断。 心機能低下（EF 49%）あり</t>
+          <t>組織診の結果、体部類内膜癌、Stage IVBと診断。 抗凝固薬（イグザレルト）服用中</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>"子宮内膜癌"</t>
+          <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
     </row>
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44948</v>
+        <v>44937</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>治療方針：開腹子宮全摘出術の方針。 心機能低下（EF 53%）あり</t>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>"子宮内膜癌"</t>
+          <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
     </row>
@@ -500,70 +500,8876 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>手術記録：腹腔鏡下全摘術施行。手術時間125分、出血量271ml。</t>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間187分、出血量214ml。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>"子宮内膜癌"</t>
+          <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44927</v>
+        <v>44977</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>組織診断の結果、頚部腺癌、Stage ICと診断。</t>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（イグザレルト）服用中</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>"頚部腺癌"</t>
+          <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44943</v>
+        <v>44990</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 糖尿病（HbA1c 9.1%）あり</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>"頚部腺癌"</t>
+          <t>"子宮体部類内膜癌"</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 55%）あり</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B8" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、明細胞癌、Stage IIIAと診断。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間340分、出血量728ml。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、漿液性卵巣癌、Stage IVCと診断。 高度肥満（BMI 31.6）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間321分、出血量767ml。</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体がん、Stage IIAと診断。 腎機能低下（Cr 1.8 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間162分、出血量164ml。</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮体癌、Stage IIIBと診断。</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間140分、出血量948ml。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>組織診の結果、卵巣腫瘍、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間131分、出血量622ml。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 9.8%）あり</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。 高度肥満（BMI 34.7）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A
+解析:
+- 2023-01-01 の記述では「卵巣腫瘍」ではなく「卵巣がん」という診断名が明確に示されており、ステージは IVA とされています。
+- その後の記述では、具体的な組織型（例：漿液性、粘液性など）や正式な診断名（例：卵巣腺癌）が見当たりません。
+- そのため、がんの正式な診断名が特定できないため、N/A と判断しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>生検の結果、卵巣腫瘍、Stage IIAと診断。</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間127分、出血量68ml。</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。 糖尿病（HbA1c 7.6%）あり</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 のエントリで "卵巣腫瘍" と診断されていますが、がんの正式な診断名（例：漿液性卵巣癌）とは言えません。
+- その後のエントリでは、治療や化学療法の記録が記載されていますが、がんの具体的な診断名が明確に示されていません。
+したがって、与えられた情報からは正式ながんの診断名を抽出することができず、"N/A" となります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮体部癌、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間327分、出血量565ml。</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 39.8）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣腫瘍、Stage ICと診断。 腎機能低下（Cr 2.8 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>N/A
+テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A
+テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間147分、出血量426ml。</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A
+テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。 心機能低下（EF 53%）あり</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>N/A
+テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>N/A
+テキスト中には具体的ながんの診断名（例：卵巣がん、子宮体癌、肺腺癌など）が明記されていません。卵巣腫瘍と診断されたとありますが、具体的ながんの診断名としては不十分なため、N/Aとします。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頚癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間303分、出血量621ml。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>組織診の結果、卵巣がん、Stage IIIAと診断。 心機能低下（EF 32%）あり</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。 心機能低下（EF 38%）あり</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間189分、出血量361ml。</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 心機能低下（EF 35%）あり</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮内膜癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間205分、出血量180ml。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、体部類内膜癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間179分、出血量293ml。</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頸部扁平上皮癌、Stage ICと診断。 腎機能低下（Cr 1.6 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>14</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。 高度肥満（BMI 35.0）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>44972</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>手術記録：開腹子宮摘出術施行。手術時間250分、出血量226ml。</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間189分、出血量122ml。</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮体部類内膜癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間145分、出血量685ml。</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>16</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮体部類内膜癌、Stage IIIAと診断。</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>16</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間313分、出血量946ml。</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>16</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>16</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頸部扁平上皮癌、Stage IIICと診断。</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間146分、出血量216ml。</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>18</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮頸がん、Stage IVCと診断。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>18</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 高度肥満（BMI 39.2）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>18</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間204分、出血量409ml。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>18</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>19</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮体部類内膜癌、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>19</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>19</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間162分、出血量970ml。</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>19</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 心機能低下（EF 52%）あり</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>19</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>19</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸部癌、Stage IIIAと診断。</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。 高度肥満（BMI 32.5）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間281分、出血量406ml。</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 腎機能低下（Cr 2.1 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>21</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、漿液性卵巣癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>21</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 腎機能低下（Cr 2.8 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間130分、出血量903ml。</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>21</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 心機能低下（EF 39%）あり</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>21</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>21</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>21</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>22</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮体がん、Stage IVCと診断。</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>22</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。 高度肥満（BMI 34.2）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>22</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間225分、出血量170ml。</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>22</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>22</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>22</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45031</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>23</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>生検の結果、頚部腺癌、Stage IIICと診断。</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>23</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>23</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間159分、出血量320ml。</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>23</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>23</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>23</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 腎機能低下（Cr 2.1 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>24</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頚癌、Stage IIBと診断。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>24</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間130分、出血量128ml。</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>24</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。 心機能低下（EF 45%）あり</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>24</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>24</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>25</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部類内膜癌、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>25</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間203分、出血量724ml。</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>25</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>26</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>組織生検の結果、頚部腺癌、Stage IIAと診断。</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>26</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>26</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間264分、出血量695ml。</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>26</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>26</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>27</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体部癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>27</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>27</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間326分、出血量543ml。</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>27</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>27</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>28</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>組織診断の結果、高異型度漿液性癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>28</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。 糖尿病（HbA1c 9.8%）あり</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>28</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間339分、出血量516ml。</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>28</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>28</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>28</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>28</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45039</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>29</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頸がん、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>29</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>29</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間247分、出血量127ml。</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>29</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 37%）あり</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>29</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>29</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45036</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>29</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>30</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>生検の結果、卵巣がん、Stage IIIAと診断。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>30</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>30</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間318分、出血量644ml。</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>30</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>30</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>31</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>生検の結果、体部類内膜癌、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>31</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>31</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間295分、出血量223ml。</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>31</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>31</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>31</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>32</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣癌、Stage IIAと診断。</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>32</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 糖尿病（HbA1c 9.2%）あり</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>32</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間137分、出血量607ml。</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>32</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>32</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>32</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>33</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮頸がん、Stage IVAと診断。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>33</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。 抗凝固薬（イグザレルト）服用中</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>33</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間348分、出血量176ml。</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>34</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頸癌、Stage IVCと診断。</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>34</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。 高度肥満（BMI 30.2）</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>34</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間223分、出血量442ml。</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>34</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>34</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>34</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.7 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>34</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 糖尿病（HbA1c 8.9%）あり</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>35</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸癌、Stage ICと診断。 高度肥満（BMI 34.8）</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>35</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>35</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間132分、出血量152ml。</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>35</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>36</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頸癌、Stage IIBと診断。</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>36</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>36</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間340分、出血量500ml。</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>37</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮体部癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>37</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>37</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間285分、出血量519ml。</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>38</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、高異型度漿液性癌、Stage IAと診断。</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>38</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>38</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間222分、出血量907ml。</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>39</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部類内膜癌、Stage IAと診断。 心機能低下（EF 50%）あり</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>39</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>39</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間295分、出血量917ml。</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>39</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>40</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、頸部扁平上皮癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>40</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>40</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間359分、出血量869ml。</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>41</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>生検の結果、明細胞癌、Stage IVBと診断。 腎機能低下（Cr 2.6 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>41</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>41</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間344分、出血量73ml。</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>41</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 高度肥満（BMI 32.8）</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>41</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.9 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>41</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 腎機能低下（Cr 2.3 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>42</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮体部類内膜癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>42</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>42</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間148分、出血量579ml。</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>42</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>43</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮内膜癌、Stage ICと診断。</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>43</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>43</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間302分、出血量679ml。</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>43</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>44</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頸癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>44</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>44</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間329分、出血量76ml。</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>44</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>45</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣癌、Stage IIIAと診断。</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>45</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>45</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間264分、出血量423ml。</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>45</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>45</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>46</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸がん、Stage IAと診断。 心機能低下（EF 38%）あり</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>46</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>46</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間146分、出血量313ml。</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>46</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>46</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>47</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>組織診の結果、頸部扁平上皮癌、Stage IIBと診断。</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>47</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>47</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間138分、出血量755ml。</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>48</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣癌、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>48</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>48</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間347分、出血量574ml。</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>48</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>48</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>49</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体がん、Stage IIAと診断。 糖尿病（HbA1c 7.6%）あり</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>49</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>49</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間184分、出血量779ml。</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>49</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>50</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頸がん、Stage IAと診断。</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>50</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>50</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間220分、出血量59ml。</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>51</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮体癌、Stage IVBと診断。 高度肥満（BMI 36.2）</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>51</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>51</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間299分、出血量431ml。</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>51</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>51</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>52</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>組織診断の結果、頚部腺癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>52</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>52</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間216分、出血量450ml。</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>52</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>52</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>52</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>53</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣がん、Stage IVCと診断。 心機能低下（EF 38%）あり</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>53</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>53</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間132分、出血量284ml。</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>54</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮頸がん、Stage ICと診断。 腎機能低下（Cr 1.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>54</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>54</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間228分、出血量631ml。</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>54</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>54</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>54</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>55</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>組織生検の結果、卵巣がん、Stage IIBと診断。</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>55</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。 糖尿病（HbA1c 8.3%）あり</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>55</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間266分、出血量211ml。</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>55</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>55</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。 腎機能低下（Cr 1.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>55</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 8.9%）あり</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>56</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>生検の結果、卵巣がん、Stage IIIBと診断。 心機能低下（EF 30%）あり</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>56</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>56</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間207分、出血量335ml。</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>56</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 心機能低下（EF 48%）あり</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>56</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>56</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45032</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 腎機能低下（Cr 2.3 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>56</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>57</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮内膜癌、Stage IIAと診断。 心機能低下（EF 37%）あり</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>57</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>57</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間136分、出血量991ml。</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>57</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>58</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣癌、Stage IIICと診断。 高度肥満（BMI 33.7）</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"
+ただし、テキスト内の情報では「漿液性」などの組織型が明記されていないため、正確な診断名は「卵巣癌」です。組織型が特定されていない場合でも、がんの部位が明確に記載されているため、これを抽出します。
+最終的な出力：
+"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>58</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"
+ただし、テキスト内の情報では「漿液性」などの組織型が明記されていないため、正確な診断名は「卵巣癌」です。組織型が特定されていない場合でも、がんの部位が明確に記載されているため、これを抽出します。
+最終的な出力：
+"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>58</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間327分、出血量974ml。</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"
+ただし、テキスト内の情報では「漿液性」などの組織型が明記されていないため、正確な診断名は「卵巣癌」です。組織型が特定されていない場合でも、がんの部位が明確に記載されているため、これを抽出します。
+最終的な出力：
+"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>58</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 心機能低下（EF 32%）あり</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"
+ただし、テキスト内の情報では「漿液性」などの組織型が明記されていないため、正確な診断名は「卵巣癌」です。組織型が特定されていない場合でも、がんの部位が明確に記載されているため、これを抽出します。
+最終的な出力：
+"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>58</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>"漿液性卵巣癌"
+ただし、テキスト内の情報では「漿液性」などの組織型が明記されていないため、正確な診断名は「卵巣癌」です。組織型が特定されていない場合でも、がんの部位が明確に記載されているため、これを抽出します。
+最終的な出力：
+"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>59</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体癌、Stage IVBと診断。</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>59</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。 糖尿病（HbA1c 6.8%）あり</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>59</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間142分、出血量899ml。</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>60</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸部癌、Stage ICと診断。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>60</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>60</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間308分、出血量510ml。</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>60</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>60</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>60</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>60</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45025</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>61</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>生検の結果、体部類内膜癌、Stage IIIBと診断。</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>61</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>61</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間256分、出血量415ml。</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>62</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮内膜癌、Stage IIBと診断。</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>62</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>62</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間338分、出血量714ml。</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>62</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.7%）あり</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>62</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>62</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>63</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頸部癌、Stage IIIAと診断。 高度肥満（BMI 33.3）</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>63</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>63</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間331分、出血量558ml。</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>63</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 心機能低下（EF 54%）あり</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>63</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>64</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部癌、Stage IIBと診断。</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>64</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。 高度肥満（BMI 39.4）</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>64</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間154分、出血量972ml。</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>64</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>64</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>64</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>65</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、体部類内膜癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>65</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>65</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間130分、出血量396ml。</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>65</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。 心機能低下（EF 54%）あり</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>65</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>65</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>66</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>組織生検の結果、卵巣がん、Stage IIBと診断。 高度肥満（BMI 39.1）</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>66</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>66</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間271分、出血量332ml。</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>66</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>66</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>66</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>67</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>生検の結果、明細胞癌、Stage IAと診断。 糖尿病（HbA1c 8.4%）あり</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>67</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>67</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間266分、出血量100ml。</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>"明細胞癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>68</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣腫瘍、Stage IIBと診断。</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>"N/A"
+このテキストでは、具体的ながんの診断名（例：漿液性卵巣癌）が明記されていません。卵巣腫瘍と診断されていますが、組織型や具体的ながんの名称が記載されていないため、診断名を確定することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>68</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>"N/A"
+このテキストでは、具体的ながんの診断名（例：漿液性卵巣癌）が明記されていません。卵巣腫瘍と診断されていますが、組織型や具体的ながんの名称が記載されていないため、診断名を確定することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>68</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間334分、出血量337ml。</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>"N/A"
+このテキストでは、具体的ながんの診断名（例：漿液性卵巣癌）が明記されていません。卵巣腫瘍と診断されていますが、組織型や具体的ながんの名称が記載されていないため、診断名を確定することはできません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>69</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣腫瘍、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 の記述では「卵巣腫瘍、Stage IVA」とありますが、これはがんの正式な診断名ではなく、病期（Stage）の情報のみが提供されています。
+- その後の記録では、具体的ながんの診断名が明示されていません。
+- そのため、明確ながんの診断名を特定できず、"N/A" としました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>69</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 の記述では「卵巣腫瘍、Stage IVA」とありますが、これはがんの正式な診断名ではなく、病期（Stage）の情報のみが提供されています。
+- その後の記録では、具体的ながんの診断名が明示されていません。
+- そのため、明確ながんの診断名を特定できず、"N/A" としました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>69</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間248分、出血量87ml。</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 の記述では「卵巣腫瘍、Stage IVA」とありますが、これはがんの正式な診断名ではなく、病期（Stage）の情報のみが提供されています。
+- その後の記録では、具体的ながんの診断名が明示されていません。
+- そのため、明確ながんの診断名を特定できず、"N/A" としました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>69</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 糖尿病（HbA1c 8.2%）あり</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 の記述では「卵巣腫瘍、Stage IVA」とありますが、これはがんの正式な診断名ではなく、病期（Stage）の情報のみが提供されています。
+- その後の記録では、具体的ながんの診断名が明示されていません。
+- そのため、明確ながんの診断名を特定できず、"N/A" としました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>70</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮頸がん、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>70</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。 心機能低下（EF 33%）あり</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>70</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間344分、出血量220ml。</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>70</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>71</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>組織生検の結果、頚部腺癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>71</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>71</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間329分、出血量623ml。</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>71</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>72</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>組織診の結果、高異型度漿液性癌、Stage IIIBと診断。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>72</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>72</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間329分、出血量528ml。</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>72</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 糖尿病（HbA1c 8.7%）あり</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>"高異型度漿液性癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>73</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、卵巣腫瘍、Stage IIICと診断。</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 の記録では「卵巣腫瘍」と記載されていますが、これは正式ながんの診断名ではありません。
+- その後の記録にはがんの診断名が明確に記載されていないため、N/A を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>73</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 高度肥満（BMI 39.1）</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 の記録では「卵巣腫瘍」と記載されていますが、これは正式ながんの診断名ではありません。
+- その後の記録にはがんの診断名が明確に記載されていないため、N/A を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>73</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間356分、出血量583ml。</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析:
+- 2023-01-01 の記録では「卵巣腫瘍」と記載されていますが、これは正式ながんの診断名ではありません。
+- その後の記録にはがんの診断名が明確に記載されていないため、N/A を返します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>74</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部癌、Stage IBと診断。 腎機能低下（Cr 2.6 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>74</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>74</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間234分、出血量695ml。</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>74</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>74</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 高度肥満（BMI 30.8）</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>"子宮体部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>75</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>生検の結果、頚部腺癌、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>75</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>75</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間168分、出血量467ml。</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>76</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>生検の結果、卵巣腫瘍、Stage IAと診断。 高度肥満（BMI 30.8）</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 のエントリでは "卵巣腫瘍" と診断されていますが、これはがんの正式な診断名ではありません。
+- その後のエントリにはがんの診断名が明示されていないため、N/A と判定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>76</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 のエントリでは "卵巣腫瘍" と診断されていますが、これはがんの正式な診断名ではありません。
+- その後のエントリにはがんの診断名が明示されていないため、N/A と判定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>76</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間352分、出血量700ml。</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 のエントリでは "卵巣腫瘍" と診断されていますが、これはがんの正式な診断名ではありません。
+- その後のエントリにはがんの診断名が明示されていないため、N/A と判定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>76</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。 腎機能低下（Cr 1.7 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>"N/A"
+解析：
+- 2023-01-01 のエントリでは "卵巣腫瘍" と診断されていますが、これはがんの正式な診断名ではありません。
+- その後のエントリにはがんの診断名が明示されていないため、N/A と判定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>77</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮頸癌、Stage IVBと診断。 腎機能低下（Cr 2.2 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>77</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>77</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間196分、出血量389ml。</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>77</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>77</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>77</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。 糖尿病（HbA1c 6.9%）あり</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>77</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>45051</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>78</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、頸部扁平上皮癌、Stage IVCと診断。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>78</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>78</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間231分、出血量547ml。</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>78</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>78</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>78</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>45028</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。 高度肥満（BMI 36.9）</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>78</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>45045</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>79</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮内膜癌、Stage ICと診断。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>79</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>79</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間163分、出血量564ml。</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>79</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>79</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.2%）あり</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>80</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体癌、Stage IBと診断。</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>80</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>80</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間221分、出血量956ml。</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>80</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>80</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>80</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 高度肥満（BMI 33.1）</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>"子宮体癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>81</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮頸がん、Stage IIAと診断。 抗凝固薬（ワーファリン）服用中</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>81</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>81</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間289分、出血量294ml。</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>81</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.6 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>81</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>45008</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>"子宮頸がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>82</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮頚癌、Stage IVBと診断。 高度肥満（BMI 39.4）</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>82</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。 高度肥満（BMI 33.0）</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>82</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間297分、出血量922ml。</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>82</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>83</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>組織診断の結果、卵巣がん、Stage ICと診断。 心機能低下（EF 39%）あり</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>83</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>83</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間172分、出血量369ml。</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>83</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。 腎機能低下（Cr 2.4 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>"卵巣がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>84</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頚癌、Stage IICと診断。</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>84</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>84</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘施行。手術時間246分、出血量937ml。</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>84</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>"子宮頚癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>85</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮体がん、Stage IIICと診断。</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>85</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘出術の方針。 心機能低下（EF 33%）あり</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>85</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間343分、出血量59ml。</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>86</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮頸部癌、Stage IIIBと診断。</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>86</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>86</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間335分、出血量872ml。</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>86</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>86</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>86</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>"子宮頸部癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>87</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>組織診の結果、体部類内膜癌、Stage IIIAと診断。 高度肥満（BMI 36.5）</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>87</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>87</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間331分、出血量309ml。</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>87</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>88</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、卵巣癌、Stage IIIAと診断。 高度肥満（BMI 32.7）</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>88</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>88</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間349分、出血量624ml。</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>88</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>88</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>"卵巣癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>89</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮体がん、Stage IIIBと診断。</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>89</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>89</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間356分、出血量685ml。</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>89</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>89</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。 糖尿病（HbA1c 8.3%）あり</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>89</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>89</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 糖尿病（HbA1c 7.2%）あり</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>90</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>病理組織診断の結果、子宮頸癌、Stage IIAと診断。 高度肥満（BMI 30.6）</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>90</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>90</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘施行。手術時間307分、出血量682ml。</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>91</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部類内膜癌、Stage ICと診断。</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>91</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘+両側付属器切除術の方針。</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>91</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間320分、出血量479ml。</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>91</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>91</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>92</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頚部腺癌、Stage IIICと診断。 高度肥満（BMI 39.2）</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>92</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>92</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間123分、出血量434ml。</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>92</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>92</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>92</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>術後化学療法として毎週パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>93</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>組織生検の結果、子宮体部類内膜癌、Stage IAと診断。</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>93</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 腎機能低下（Cr 2.7 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>93</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>手術記録：開腹全摘術施行。手術時間234分、出血量299ml。</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>93</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 糖尿病（HbA1c 9.2%）あり</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>93</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>94</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>生検の結果、子宮内膜癌、Stage IIBと診断。 糖尿病（HbA1c 6.7%）あり</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>94</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮全摘の方針。 抗凝固薬（プラザキサ）服用中</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>94</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘+両側付属器切除術施行。手術時間294分、出血量441ml。</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>94</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>94</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>94</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDCを開始。</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>94</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>"子宮内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>95</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>組織診断の結果、子宮体部類内膜癌、Stage IIIAと診断。 心機能低下（EF 52%）あり</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>95</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下全摘術の方針。 心機能低下（EF 48%）あり</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>95</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮摘出術施行。手術時間242分、出血量612ml。</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>95</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly PTXを開始。</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>95</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 腎機能低下（Cr 2.0 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>95</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>術後化学療法としてパクリタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>96</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、頚部腺癌、Stage IVCと診断。 心機能低下（EF 48%）あり</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>96</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>治療方針：開腹子宮摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>96</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘+両側付属器切除術施行。手術時間154分、出血量496ml。</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>96</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>96</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>"頚部腺癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>97</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、体部類内膜癌、Stage IICと診断。 腎機能低下（Cr 2.5 mg/dl）</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>97</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘出術の方針。</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>97</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮摘出術施行。手術時間128分、出血量813ml。</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>"子宮体部類内膜癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>98</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>組織診の結果、頸部扁平上皮癌、Stage IIIBと診断。</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>98</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>98</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>手術記録：開腹子宮全摘出術施行。手術時間201分、出血量372ml。</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>98</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>98</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>術後化学療法としてTCを開始。 高度肥満（BMI 32.1）</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>98</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>98</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>45053</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 心機能低下（EF 46%）あり</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>"頸部扁平上皮癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>99</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>内膜組織診の結果、子宮頸癌、Stage IVAと診断。</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>99</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>治療方針：開腹全摘術の方針。 糖尿病（HbA1c 6.7%）あり</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>99</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下全摘術施行。手術時間299分、出血量160ml。</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>99</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>99</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>術後化学療法としてweekly パクリタキセルを開始。</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>99</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>術後化学療法としてPTX+CBDCAを開始。 心機能低下（EF 50%）あり</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>99</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>術後化学療法としてドセタキセル+カルボプラチンを開始。</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>"子宮頸癌"</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>100</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>組織診の結果、子宮体がん、Stage IVBと診断。</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>100</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>治療方針：腹腔鏡下子宮全摘の方針。</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>100</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>手術記録：腹腔鏡下子宮全摘出術施行。手術時間124分、出血量161ml。</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>100</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>術後化学療法としてDC療法を開始。</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>100</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45022</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>術後化学療法としてwPTXを開始。 抗凝固薬（エリキュース）服用中</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>"子宮体がん"</t>
         </is>
       </c>
     </row>
